--- a/medicine/Mort/Cimetières_parisiens/Cimetières_parisiens.xlsx
+++ b/medicine/Mort/Cimetières_parisiens/Cimetières_parisiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_parisiens</t>
+          <t>Cimetières_parisiens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cimetières parisiens sont des cimetières administrés par la Ville de Paris, ce qui inclut à la fois les cimetières situés à l'intérieur des limites communales (intra muros), mais aussi plusieurs autres situés à l'extérieur, dans des communes de la petite couronne (extra muros).
 Ils sont au nombre de 20, dont 14 intra muros et 6 extra muros.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_parisiens</t>
+          <t>Cimetières_parisiens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_parisiens</t>
+          <t>Cimetières_parisiens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Cimetières extra muros</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains de ces cimetières extra muros ont été annexés en 1860, en même temps que les communes limitrophes du Paris de l'époque, même s'ils se situaient au-delà de ces territoires annexés.
 Les autres ont été créés par la suite.
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_parisiens</t>
+          <t>Cimetières_parisiens</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Autres nécropoles à Paris</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Paris compte d'autres nécropoles :
 les Catacombes, situées dans les carrières souterraines ;
@@ -581,8 +599,8 @@
 la tombe du Soldat inconnu, qui accueille le corps d'un soldat inconnu de la Première Guerre mondiale ;
 des cimetières qui n'existent plus : le cimetière des Innocents, le cimetière des Errancis, le cimetière Sainte-Marguerite, le cimetière de la Madeleine, le cimetière Saint-Jean (à l'emplacement de l'actuelle place Baudoyer et de son parc automobile souterrain, sur l'ancienne « Barre » est du Paris carolingiano-robertien), les cimetières mérovingiens ou/et gallo-romains Saint-Marcel, des Gobelins, et autres ; les tombes des soldats gaulois parisiis et romains de Camulogène et Labienus tombés au combat les uns contre les autres, vraisemblablement sous l'actuel Champ-de-Mars, avec tour Eiffel pour mausolée inconscient et Ecole militaire non loin ;
 des cimetières privés : le cimetière de Picpus, le cimetière des Juifs portugais ;
-les cimetières de communes limitrophes : le cimetière ancien et le cimetière Valmy administrés et gérés par la commune de Charenton-le-Pont, le cimetière Sud de Saint-Mandé administré et géré par la commune de Saint-Mandé, sur le territoire du 12e arrondissement[2], le cimetière de Gentilly, sur le territoire du 13e arrondissement et le cimetière de Montrouge, sur le territoire du 14e arrondissement.
-Enfin, de nombreuses églises parisiennes abritent aussi des tombes. L'Institut Pasteur possède également une crypte accueillant le tombeau de son fondateur Louis Pasteur[3], et la Sorbonne une chapelle abritant la sépulture de Richelieu qui y avait été élève et proviseur, ainsi que des résistants étudiants et enseignants.
+les cimetières de communes limitrophes : le cimetière ancien et le cimetière Valmy administrés et gérés par la commune de Charenton-le-Pont, le cimetière Sud de Saint-Mandé administré et géré par la commune de Saint-Mandé, sur le territoire du 12e arrondissement, le cimetière de Gentilly, sur le territoire du 13e arrondissement et le cimetière de Montrouge, sur le territoire du 14e arrondissement.
+Enfin, de nombreuses églises parisiennes abritent aussi des tombes. L'Institut Pasteur possède également une crypte accueillant le tombeau de son fondateur Louis Pasteur, et la Sorbonne une chapelle abritant la sépulture de Richelieu qui y avait été élève et proviseur, ainsi que des résistants étudiants et enseignants.
 </t>
         </is>
       </c>
